--- a/products/冲调饮品/咖啡/奇堡金装即溶咖啡.xlsx
+++ b/products/冲调饮品/咖啡/奇堡金装即溶咖啡.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="996" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -319,9 +319,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.1134020618557"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.1494845360825"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="17.2371134020619"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4587628865979"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.8298969072165"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="17.4587628865979"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.72680412371134"/>
   </cols>
   <sheetData>
